--- a/Civilworks cost/Slope Protection/Length statement (Corrected).xlsx
+++ b/Civilworks cost/Slope Protection/Length statement (Corrected).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$66</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -159,11 +159,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +729,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -740,63 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -890,9 +890,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -924,6 +925,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1099,75 +1101,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
-      <c r="A3" s="154" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="156" t="s">
+      <c r="B3" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="158" t="s">
+      <c r="D3" s="163"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="158" t="s">
+      <c r="G3" s="163"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="158" t="s">
+      <c r="J3" s="163"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="161" t="s">
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="161" t="s">
+      <c r="P3" s="156" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="25.5">
-      <c r="A4" s="155"/>
-      <c r="B4" s="157"/>
+    <row r="4" spans="1:27" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="166"/>
+      <c r="B4" s="168"/>
       <c r="C4" s="35" t="s">
         <v>6</v>
       </c>
@@ -1204,8 +1206,8 @@
       <c r="N4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
+      <c r="O4" s="157"/>
+      <c r="P4" s="157"/>
       <c r="R4" s="51"/>
       <c r="S4" s="51"/>
       <c r="T4" s="51"/>
@@ -1217,7 +1219,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27" ht="48.75" customHeight="1">
+    <row r="5" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>18</v>
       </c>
@@ -1256,7 +1258,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9">
@@ -1298,7 +1300,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9">
@@ -1333,7 +1335,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="148" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1380,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27" ht="45">
+    <row r="9" spans="1:27" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="112" t="s">
         <v>19</v>
       </c>
@@ -1431,7 +1433,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="118"/>
       <c r="B10" s="119"/>
       <c r="C10" s="88">
@@ -1466,11 +1468,11 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="121"/>
       <c r="B11" s="122"/>
-      <c r="C11" s="165"/>
-      <c r="D11" s="166"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="159"/>
       <c r="E11" s="123"/>
       <c r="F11" s="122"/>
       <c r="G11" s="124"/>
@@ -1494,11 +1496,11 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
-      <c r="A12" s="152" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="153"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="127"/>
       <c r="D12" s="128"/>
       <c r="E12" s="126">
@@ -1540,7 +1542,7 @@
       <c r="Y12" s="51"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:27" ht="30">
+    <row r="13" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1594,7 @@
       <c r="Y13" s="51"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="11"/>
       <c r="C14" s="88">
@@ -1633,7 +1635,7 @@
       <c r="Y14" s="51"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="11"/>
       <c r="C15" s="88">
@@ -1674,7 +1676,7 @@
       <c r="Y15" s="51"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="11"/>
       <c r="C16" s="88">
@@ -1715,7 +1717,7 @@
       <c r="Y16" s="51"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="11"/>
       <c r="C17" s="119"/>
@@ -1747,11 +1749,11 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="166"/>
+      <c r="C18" s="158"/>
+      <c r="D18" s="159"/>
       <c r="E18" s="123"/>
       <c r="F18" s="122"/>
       <c r="G18" s="124"/>
@@ -1765,21 +1767,21 @@
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
     </row>
-    <row r="19" spans="1:25">
-      <c r="A19" s="152" t="s">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="153"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="127"/>
       <c r="D19" s="128"/>
       <c r="E19" s="126">
         <f>SUM(E13:E18)</f>
         <v>1.0819999999999936</v>
       </c>
-      <c r="F19" s="167" t="s">
+      <c r="F19" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="168"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="126">
         <f>SUM(H13:H18)</f>
         <v>1.541999999999998</v>
@@ -1804,7 +1806,7 @@
         <v>1778.74</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="30">
+    <row r="20" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
@@ -1847,7 +1849,7 @@
       <c r="O20" s="34"/>
       <c r="P20" s="40"/>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="70">
@@ -1879,7 +1881,7 @@
       <c r="O21" s="47"/>
       <c r="P21" s="48"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="49">
@@ -1911,7 +1913,7 @@
       <c r="O22" s="47"/>
       <c r="P22" s="48"/>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="148" t="s">
         <v>26</v>
       </c>
@@ -1922,19 +1924,19 @@
         <f>SUM(E20:E22)</f>
         <v>1.0899999999999999</v>
       </c>
-      <c r="F23" s="163"/>
-      <c r="G23" s="164"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="153"/>
       <c r="H23" s="28">
         <v>0</v>
       </c>
-      <c r="I23" s="163"/>
-      <c r="J23" s="164"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="153"/>
       <c r="K23" s="28">
         <f>SUM(K20:K22)</f>
         <v>1.1550000000000002</v>
       </c>
-      <c r="L23" s="163"/>
-      <c r="M23" s="164"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="153"/>
       <c r="N23" s="28">
         <f>SUM(N20:N22)</f>
         <v>3.0000000000001137E-2</v>
@@ -1954,7 +1956,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="50.25" customHeight="1">
+    <row r="24" spans="1:25" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="74" t="s">
         <v>21</v>
       </c>
@@ -1998,7 +2000,7 @@
       <c r="X24" s="68"/>
       <c r="Y24" s="68"/>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="C25" s="88">
         <v>1.21</v>
@@ -2037,7 +2039,7 @@
       <c r="X25" s="68"/>
       <c r="Y25" s="68"/>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="88">
@@ -2075,7 +2077,7 @@
       <c r="X26" s="60"/>
       <c r="Y26" s="68"/>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="88">
@@ -2113,7 +2115,7 @@
       <c r="X27" s="68"/>
       <c r="Y27" s="68"/>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="88">
@@ -2139,8 +2141,8 @@
       <c r="I28" s="11"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="171"/>
-      <c r="M28" s="172"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="155"/>
       <c r="N28" s="17"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
@@ -2153,7 +2155,7 @@
       <c r="X28" s="68"/>
       <c r="Y28" s="68"/>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="88">
@@ -2186,7 +2188,7 @@
       <c r="X29" s="68"/>
       <c r="Y29" s="68"/>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="88">
@@ -2219,7 +2221,7 @@
       <c r="X30" s="68"/>
       <c r="Y30" s="68"/>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="88">
@@ -2252,7 +2254,7 @@
       <c r="X31" s="68"/>
       <c r="Y31" s="68"/>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="88">
@@ -2285,7 +2287,7 @@
       <c r="X32" s="68"/>
       <c r="Y32" s="68"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="88">
@@ -2318,7 +2320,7 @@
       <c r="X33" s="68"/>
       <c r="Y33" s="68"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="88">
@@ -2351,7 +2353,7 @@
       <c r="X34" s="68"/>
       <c r="Y34" s="68"/>
     </row>
-    <row r="35" spans="1:25" ht="30">
+    <row r="35" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="98" t="s">
         <v>13</v>
@@ -2383,31 +2385,31 @@
       <c r="X35" s="68"/>
       <c r="Y35" s="68"/>
     </row>
-    <row r="36" spans="1:25">
-      <c r="A36" s="150" t="s">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="151"/>
+      <c r="B36" s="170"/>
       <c r="C36" s="142"/>
       <c r="D36" s="50"/>
       <c r="E36" s="28">
         <f>SUM(E24:E35)</f>
         <v>1.093999999999999</v>
       </c>
-      <c r="F36" s="163"/>
-      <c r="G36" s="164"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153"/>
       <c r="H36" s="28">
         <f>SUM(H24:H35)</f>
         <v>1.0970000000000013</v>
       </c>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
       <c r="K36" s="28">
         <f>K25</f>
         <v>0</v>
       </c>
-      <c r="L36" s="163"/>
-      <c r="M36" s="164"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="153"/>
       <c r="N36" s="28">
         <f>SUM(N24:N35)</f>
         <v>1.5000000000000568E-2</v>
@@ -2428,8 +2430,8 @@
       <c r="X36" s="68"/>
       <c r="Y36" s="68"/>
     </row>
-    <row r="37" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A37" s="169" t="s">
+    <row r="37" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="150" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="144" t="s">
@@ -2472,8 +2474,8 @@
       <c r="X37" s="68"/>
       <c r="Y37" s="68"/>
     </row>
-    <row r="38" spans="1:25">
-      <c r="A38" s="170"/>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="151"/>
       <c r="B38" s="15"/>
       <c r="C38" s="102"/>
       <c r="D38" s="103"/>
@@ -2505,8 +2507,8 @@
       <c r="X38" s="68"/>
       <c r="Y38" s="68"/>
     </row>
-    <row r="39" spans="1:25" ht="19.5" customHeight="1">
-      <c r="A39" s="170"/>
+    <row r="39" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="151"/>
       <c r="B39" s="143" t="s">
         <v>29</v>
       </c>
@@ -2539,7 +2541,7 @@
       <c r="X39" s="68"/>
       <c r="Y39" s="68"/>
     </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+    <row r="40" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="145" t="s">
         <v>24</v>
@@ -2574,7 +2576,7 @@
       <c r="X40" s="68"/>
       <c r="Y40" s="68"/>
     </row>
-    <row r="41" spans="1:25" ht="15" customHeight="1">
+    <row r="41" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="146" t="s">
         <v>30</v>
@@ -2605,7 +2607,7 @@
       <c r="X41" s="68"/>
       <c r="Y41" s="68"/>
     </row>
-    <row r="42" spans="1:25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="147" t="s">
         <v>14</v>
@@ -2640,7 +2642,7 @@
       <c r="X42" s="68"/>
       <c r="Y42" s="68"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="106"/>
@@ -2673,7 +2675,7 @@
       <c r="X43" s="68"/>
       <c r="Y43" s="68"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="106"/>
@@ -2706,7 +2708,7 @@
       <c r="X44" s="107"/>
       <c r="Y44" s="68"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="106"/>
@@ -2739,7 +2741,7 @@
       <c r="X45" s="107"/>
       <c r="Y45" s="68"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="106"/>
@@ -2772,7 +2774,7 @@
       <c r="X46" s="51"/>
       <c r="Y46" s="68"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="106"/>
@@ -2805,7 +2807,7 @@
       <c r="X47" s="51"/>
       <c r="Y47" s="68"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="106"/>
@@ -2838,7 +2840,7 @@
       <c r="X48" s="51"/>
       <c r="Y48" s="68"/>
     </row>
-    <row r="49" spans="1:25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="106"/>
@@ -2871,7 +2873,7 @@
       <c r="X49" s="51"/>
       <c r="Y49" s="68"/>
     </row>
-    <row r="50" spans="1:25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="15"/>
       <c r="C50" s="16"/>
@@ -2904,7 +2906,7 @@
       <c r="X50" s="68"/>
       <c r="Y50" s="68"/>
     </row>
-    <row r="51" spans="1:25" ht="24">
+    <row r="51" spans="1:25" ht="24" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="146" t="s">
         <v>25</v>
@@ -2935,7 +2937,7 @@
       <c r="X51" s="68"/>
       <c r="Y51" s="68"/>
     </row>
-    <row r="52" spans="1:25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="148" t="s">
         <v>26</v>
       </c>
@@ -2946,20 +2948,20 @@
         <f>E39</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="F52" s="163"/>
-      <c r="G52" s="164"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="153"/>
       <c r="H52" s="28">
         <f>H39+H41+H51</f>
         <v>4.3800000000000008</v>
       </c>
-      <c r="I52" s="163"/>
-      <c r="J52" s="164"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="153"/>
       <c r="K52" s="28">
         <f>SUM(K48:K50)</f>
         <v>0</v>
       </c>
-      <c r="L52" s="163"/>
-      <c r="M52" s="164"/>
+      <c r="L52" s="152"/>
+      <c r="M52" s="153"/>
       <c r="N52" s="28">
         <f>SUM(N48:N50)</f>
         <v>0</v>
@@ -2980,7 +2982,7 @@
       <c r="X52" s="68"/>
       <c r="Y52" s="68"/>
     </row>
-    <row r="53" spans="1:25" ht="45">
+    <row r="53" spans="1:25" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="74" t="s">
         <v>27</v>
       </c>
@@ -3031,7 +3033,7 @@
       <c r="X53" s="68"/>
       <c r="Y53" s="68"/>
     </row>
-    <row r="54" spans="1:25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="15"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3071,7 +3073,7 @@
       <c r="X54" s="68"/>
       <c r="Y54" s="68"/>
     </row>
-    <row r="55" spans="1:25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="19"/>
       <c r="B55" s="3"/>
       <c r="C55" s="11"/>
@@ -3104,7 +3106,7 @@
       <c r="X55" s="68"/>
       <c r="Y55" s="68"/>
     </row>
-    <row r="56" spans="1:25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="148" t="s">
         <v>26</v>
       </c>
@@ -3114,18 +3116,18 @@
       <c r="E56" s="28">
         <v>0.33</v>
       </c>
-      <c r="F56" s="163"/>
-      <c r="G56" s="164"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="153"/>
       <c r="H56" s="28">
         <v>3.12</v>
       </c>
-      <c r="I56" s="163"/>
-      <c r="J56" s="164"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="153"/>
       <c r="K56" s="28">
         <v>0</v>
       </c>
-      <c r="L56" s="163"/>
-      <c r="M56" s="164"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="153"/>
       <c r="N56" s="33">
         <f>SUM(N53:N55)</f>
         <v>6.0000000000001164E-2</v>
@@ -3146,7 +3148,7 @@
       <c r="X56" s="68"/>
       <c r="Y56" s="68"/>
     </row>
-    <row r="57" spans="1:25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="148" t="s">
         <v>16</v>
       </c>
@@ -3163,14 +3165,14 @@
         <f>H8+H12+H19+H36+H52+H56</f>
         <v>12.628999999999998</v>
       </c>
-      <c r="I57" s="163"/>
-      <c r="J57" s="164"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="153"/>
       <c r="K57" s="28">
         <f>K23</f>
         <v>1.1550000000000002</v>
       </c>
-      <c r="L57" s="163"/>
-      <c r="M57" s="164"/>
+      <c r="L57" s="152"/>
+      <c r="M57" s="153"/>
       <c r="N57" s="33">
         <f>N56+N36+N23+N19+N12</f>
         <v>0.16500000000000159</v>
@@ -3192,7 +3194,7 @@
       <c r="X57" s="68"/>
       <c r="Y57" s="68"/>
     </row>
-    <row r="58" spans="1:25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -3203,6 +3205,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="I57:J57"/>
@@ -3219,25 +3240,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="A52:B52"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
@@ -3245,24 +3247,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
